--- a/trunk/Source/FalStore/FalStore/TemplateDocs/TemplateNhapXuatDetail.xlsx
+++ b/trunk/Source/FalStore/FalStore/TemplateDocs/TemplateNhapXuatDetail.xlsx
@@ -10,17 +10,18 @@
     <sheet name="Transactions" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="chitiet">Transactions!$A$4:$M$4</definedName>
-    <definedName name="DefinedNames" localSheetId="0">Transactions!$A$4:$H$4</definedName>
-    <definedName name="TemplateRow">Transactions!$A$4:$C$4</definedName>
-    <definedName name="thanh" localSheetId="0">Transactions!$A$4:$H$4</definedName>
+    <definedName name="chitiet">Transactions!$A$4:$N$4</definedName>
+    <definedName name="ChiTiet2" localSheetId="0">Transactions!$A$4:$N$4</definedName>
+    <definedName name="DefinedNames" localSheetId="0">Transactions!$A$4:$I$4</definedName>
+    <definedName name="TemplateRow">Transactions!$A$4:$D$4</definedName>
+    <definedName name="thanh" localSheetId="0">Transactions!$A$4:$I$4</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>List of Transactions</t>
   </si>
@@ -49,9 +50,6 @@
     <t>Mã Sản Phẩm</t>
   </si>
   <si>
-    <t>Tên San Phẩm</t>
-  </si>
-  <si>
     <t>Màu Sản Phẩm</t>
   </si>
   <si>
@@ -101,6 +99,15 @@
   </si>
   <si>
     <t>[Amount]</t>
+  </si>
+  <si>
+    <t>Chi Nhánh</t>
+  </si>
+  <si>
+    <t>Tên Sản Phẩm</t>
+  </si>
+  <si>
+    <t>[ChiNhanh]</t>
   </si>
 </sst>
 </file>
@@ -255,7 +262,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>857250</xdr:colOff>
+      <xdr:colOff>866775</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -572,36 +579,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" customWidth="1"/>
+    <col min="2" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="46.5" customHeight="1">
+    <row r="1" spans="1:14" ht="46.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75">
+    <row r="3" spans="1:14" ht="15.75">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -609,78 +617,84 @@
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="N4" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
